--- a/documents/RCT-replication v2.0.xlsx
+++ b/documents/RCT-replication v2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaehyeongcho/git_temp/Troy_JC/troy/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AA7B70-C85A-D44F-8A79-F948CCFE4D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF66BF7A-3209-0C4B-8C44-7D261CB230E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68800" yWindow="-2480" windowWidth="68800" windowHeight="28300" activeTab="3" xr2:uid="{017E629E-C77E-424A-8361-000EE1F79FFA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="12" xr2:uid="{017E629E-C77E-424A-8361-000EE1F79FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Interventions" sheetId="2" r:id="rId1"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="968">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5462,6 +5462,14 @@
       </rPr>
       <t xml:space="preserve"> years with documented symptomatic atherosclerotic cardiovascular disease: including stroke; myocardial infarction (MI); hospital admission for unstable angina; coronary artery bypass graft (CABG); percutaneous coronary intervention (PCI; with or without stenting); peripheral revascularization (angioplasty or surgery); symptomatic with documented hemodynamically-significant carotid or peripheral vascular disease; or amputation secondary to vascular disease.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Planned, drug allergy, life expectancy 는 not important?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canagliflozin vs. DPP-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5774,6 +5782,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5795,36 +5819,20 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6994,8 +7002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905B1CB3-65F5-534F-9DE8-D0F765D786A8}">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="193" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView zoomScale="193" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -7025,19 +7033,19 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="34"/>
       <c r="E2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="34"/>
       <c r="E3" s="14" t="s">
         <v>341</v>
       </c>
@@ -7054,10 +7062,10 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="34"/>
       <c r="E5" s="16" t="s">
         <v>343</v>
       </c>
@@ -7074,10 +7082,10 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:22" ht="54">
       <c r="A8" s="1">
@@ -8016,10 +8024,10 @@
       <c r="V43" s="1"/>
     </row>
     <row r="44" spans="1:22" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="28"/>
+      <c r="C44" s="34"/>
     </row>
     <row r="45" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A45" s="1">
@@ -8028,17 +8036,17 @@
       <c r="B45" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
     </row>
     <row r="46" spans="1:22" ht="162">
       <c r="A46" s="1">
@@ -8047,17 +8055,17 @@
       <c r="B46" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
     </row>
     <row r="47" spans="1:22" ht="36">
       <c r="A47" s="1">
@@ -8066,17 +8074,17 @@
       <c r="B47" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
     </row>
     <row r="48" spans="1:22" ht="72">
       <c r="A48" s="1">
@@ -8085,17 +8093,17 @@
       <c r="B48" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
     </row>
     <row r="49" spans="1:13" s="1" customFormat="1" ht="72">
       <c r="A49" s="1">
@@ -8104,17 +8112,17 @@
       <c r="B49" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A50" s="1">
@@ -8123,17 +8131,17 @@
       <c r="B50" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A51" s="1">
@@ -8142,17 +8150,17 @@
       <c r="B51" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
     </row>
     <row r="52" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A52" s="1">
@@ -8161,17 +8169,17 @@
       <c r="B52" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
     </row>
     <row r="53" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A53" s="1">
@@ -8180,17 +8188,17 @@
       <c r="B53" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
     </row>
     <row r="54" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A54" s="1">
@@ -8199,17 +8207,17 @@
       <c r="B54" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
     </row>
     <row r="55" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A55" s="1">
@@ -8218,17 +8226,17 @@
       <c r="B55" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
     </row>
     <row r="56" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A56" s="1">
@@ -8237,17 +8245,17 @@
       <c r="B56" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A57" s="1">
@@ -8256,17 +8264,17 @@
       <c r="B57" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
     </row>
     <row r="58" spans="1:13" s="1" customFormat="1" ht="90">
       <c r="A58" s="1">
@@ -8275,17 +8283,17 @@
       <c r="B58" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
     </row>
     <row r="59" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A59" s="1">
@@ -8466,7 +8474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F78225-A051-433F-8B9A-D99862A4DC2B}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="214" workbookViewId="0">
+    <sheetView zoomScale="214" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -8497,19 +8505,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="34"/>
       <c r="E2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="34"/>
       <c r="E3" s="14" t="s">
         <v>341</v>
       </c>
@@ -8526,10 +8534,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="34"/>
       <c r="E5" s="16" t="s">
         <v>343</v>
       </c>
@@ -8546,10 +8554,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:5" ht="36">
       <c r="A8" s="1">
@@ -8576,10 +8584,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="34"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18">
       <c r="A12" s="1">
@@ -8845,19 +8853,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="34"/>
       <c r="E2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="34"/>
       <c r="E3" s="14" t="s">
         <v>341</v>
       </c>
@@ -8874,10 +8882,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="34"/>
       <c r="E5" s="16" t="s">
         <v>343</v>
       </c>
@@ -8894,10 +8902,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:5" ht="54">
       <c r="A8" s="1">
@@ -9012,10 +9020,10 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="108">
       <c r="A23" s="1">
@@ -9042,8 +9050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62035828-6785-44E0-B58E-9D0926F26D5F}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="183" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -9073,19 +9081,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="34"/>
       <c r="E2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="34"/>
       <c r="E3" s="14" t="s">
         <v>341</v>
       </c>
@@ -9102,10 +9110,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="34"/>
       <c r="E5" s="16" t="s">
         <v>343</v>
       </c>
@@ -9122,10 +9130,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:5" ht="36">
       <c r="A8" s="1">
@@ -9261,10 +9269,10 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="54">
       <c r="A23" s="1">
@@ -9517,7 +9525,7 @@
       <c r="B49" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="35" t="s">
         <v>429</v>
       </c>
     </row>
@@ -9528,7 +9536,7 @@
       <c r="B50" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C50" s="29"/>
+      <c r="C50" s="35"/>
     </row>
     <row r="51" spans="1:4" ht="144">
       <c r="A51" s="1">
@@ -9701,19 +9709,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="36"/>
       <c r="E2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="36"/>
       <c r="E3" s="14" t="s">
         <v>341</v>
       </c>
@@ -9733,10 +9741,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="36"/>
       <c r="E5" s="16" t="s">
         <v>343</v>
       </c>
@@ -9756,10 +9764,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="36">
       <c r="A8" s="1">
@@ -9890,10 +9898,10 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="36">
       <c r="A23" s="1">
@@ -10210,19 +10218,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="34"/>
       <c r="E2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="34"/>
       <c r="E3" s="14" t="s">
         <v>341</v>
       </c>
@@ -10239,10 +10247,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="34"/>
       <c r="E5" s="16" t="s">
         <v>343</v>
       </c>
@@ -10262,10 +10270,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="1">
@@ -10300,10 +10308,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="34"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="54">
       <c r="A13" s="1">
@@ -10625,13 +10633,13 @@
       <c r="A2" t="s">
         <v>445</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="39" t="s">
         <v>453</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="26">
         <v>3004410</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="26" t="s">
         <v>905</v>
       </c>
     </row>
@@ -10639,11 +10647,11 @@
       <c r="A3" t="s">
         <v>886</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="35">
+      <c r="B3" s="39"/>
+      <c r="C3" s="26">
         <v>40769783</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="26" t="s">
         <v>885</v>
       </c>
       <c r="E3">
@@ -10654,11 +10662,11 @@
       <c r="A4" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="35">
+      <c r="B4" s="39"/>
+      <c r="C4" s="26">
         <v>40762636</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="26" t="s">
         <v>887</v>
       </c>
       <c r="E4">
@@ -10669,11 +10677,11 @@
       <c r="A5" t="s">
         <v>449</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="35">
+      <c r="B5" s="39"/>
+      <c r="C5" s="26">
         <v>3006923</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="26" t="s">
         <v>388</v>
       </c>
       <c r="E5">
@@ -10684,11 +10692,11 @@
       <c r="A6" t="s">
         <v>450</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="35">
+      <c r="B6" s="39"/>
+      <c r="C6" s="26">
         <v>3013721</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="26" t="s">
         <v>387</v>
       </c>
       <c r="E6">
@@ -10699,11 +10707,11 @@
       <c r="A7" t="s">
         <v>451</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="35">
+      <c r="B7" s="39"/>
+      <c r="C7" s="26">
         <v>3035995</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="26" t="s">
         <v>389</v>
       </c>
       <c r="E7">
@@ -10714,11 +10722,11 @@
       <c r="A8" t="s">
         <v>455</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="35">
+      <c r="B8" s="39"/>
+      <c r="C8" s="26">
         <v>3020682</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="26" t="s">
         <v>888</v>
       </c>
       <c r="E8" t="s">
@@ -10726,14 +10734,14 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="35">
+      <c r="B9" s="39"/>
+      <c r="C9" s="26">
         <v>3029859</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="26" t="s">
         <v>891</v>
       </c>
       <c r="E9" t="s">
@@ -10741,22 +10749,22 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="36"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="35">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="26">
         <v>40771922</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="26" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="36"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="35">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="26">
         <v>3049187</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="26" t="s">
         <v>890</v>
       </c>
     </row>
@@ -10764,11 +10772,11 @@
       <c r="A12" t="s">
         <v>457</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="35">
+      <c r="B12" s="39"/>
+      <c r="C12" s="26">
         <v>3004501</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="26" t="s">
         <v>893</v>
       </c>
       <c r="E12">
@@ -10779,11 +10787,11 @@
       <c r="A13" t="s">
         <v>467</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="35">
+      <c r="B13" s="39"/>
+      <c r="C13" s="26">
         <v>3028437</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="26" t="s">
         <v>896</v>
       </c>
       <c r="E13">
@@ -10794,11 +10802,11 @@
       <c r="A14" t="s">
         <v>468</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="35">
+      <c r="B14" s="39"/>
+      <c r="C14" s="26">
         <v>3007070</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="26" t="s">
         <v>895</v>
       </c>
       <c r="E14">
@@ -10809,11 +10817,11 @@
       <c r="A15" t="s">
         <v>458</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="35">
+      <c r="B15" s="39"/>
+      <c r="C15" s="26">
         <v>3027114</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="26" t="s">
         <v>894</v>
       </c>
       <c r="E15">
@@ -10824,11 +10832,11 @@
       <c r="A16" t="s">
         <v>459</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="35">
+      <c r="B16" s="39"/>
+      <c r="C16" s="26">
         <v>3027108</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="26" t="s">
         <v>897</v>
       </c>
     </row>
@@ -10836,11 +10844,11 @@
       <c r="A17" t="s">
         <v>460</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="35">
+      <c r="B17" s="39"/>
+      <c r="C17" s="26">
         <v>3004249</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="26" t="s">
         <v>898</v>
       </c>
     </row>
@@ -10848,11 +10856,11 @@
       <c r="A18" t="s">
         <v>953</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="35">
+      <c r="B18" s="39"/>
+      <c r="C18" s="26">
         <v>3012888</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="26" t="s">
         <v>899</v>
       </c>
     </row>
@@ -10860,11 +10868,11 @@
       <c r="A19" t="s">
         <v>462</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="35">
+      <c r="B19" s="39"/>
+      <c r="C19" s="26">
         <v>3024128</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="26" t="s">
         <v>380</v>
       </c>
     </row>
@@ -10872,7 +10880,7 @@
       <c r="A20" t="s">
         <v>463</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="39"/>
       <c r="C20">
         <v>3000034</v>
       </c>
@@ -10884,11 +10892,11 @@
       <c r="A21" t="s">
         <v>464</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="35">
+      <c r="B21" s="39"/>
+      <c r="C21" s="26">
         <v>3022192</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="26" t="s">
         <v>901</v>
       </c>
     </row>
@@ -10896,11 +10904,11 @@
       <c r="A22" t="s">
         <v>466</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="35">
+      <c r="B22" s="39"/>
+      <c r="C22" s="26">
         <v>3027018</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="26" t="s">
         <v>465</v>
       </c>
     </row>
@@ -10908,11 +10916,11 @@
       <c r="A23" t="s">
         <v>367</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="35">
+      <c r="B23" s="39"/>
+      <c r="C23" s="26">
         <v>3000963</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="26" t="s">
         <v>902</v>
       </c>
     </row>
@@ -10920,11 +10928,11 @@
       <c r="A24" t="s">
         <v>369</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="35">
+      <c r="B24" s="39"/>
+      <c r="C24" s="26">
         <v>3024929</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="26" t="s">
         <v>904</v>
       </c>
     </row>
@@ -10932,11 +10940,11 @@
       <c r="A25" t="s">
         <v>370</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="35">
+      <c r="B25" s="39"/>
+      <c r="C25" s="26">
         <v>3016723</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="26" t="s">
         <v>379</v>
       </c>
       <c r="E25">
@@ -10947,11 +10955,11 @@
       <c r="A26" t="s">
         <v>470</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="35">
+      <c r="B26" s="39"/>
+      <c r="C26" s="26">
         <v>3000905</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="26" t="s">
         <v>903</v>
       </c>
     </row>
@@ -10959,7 +10967,7 @@
       <c r="A27" t="s">
         <v>445</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="39" t="s">
         <v>454</v>
       </c>
       <c r="C27">
@@ -10973,7 +10981,7 @@
       <c r="A28" t="s">
         <v>886</v>
       </c>
-      <c r="B28" s="32"/>
+      <c r="B28" s="39"/>
       <c r="C28">
         <v>3021337</v>
       </c>
@@ -10985,7 +10993,7 @@
       <c r="A29" t="s">
         <v>448</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="39"/>
       <c r="C29">
         <v>3038553</v>
       </c>
@@ -10997,7 +11005,7 @@
       <c r="A30" t="s">
         <v>449</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="39"/>
       <c r="C30">
         <v>3006923</v>
       </c>
@@ -11009,7 +11017,7 @@
       <c r="A31" t="s">
         <v>450</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="39"/>
       <c r="C31">
         <v>3013721</v>
       </c>
@@ -11021,7 +11029,7 @@
       <c r="A32" t="s">
         <v>451</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="39"/>
       <c r="C32">
         <v>3035995</v>
       </c>
@@ -11033,7 +11041,7 @@
       <c r="A33" t="s">
         <v>455</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="39"/>
       <c r="C33">
         <v>3034485</v>
       </c>
@@ -11042,10 +11050,10 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="39"/>
       <c r="C34">
         <v>40771922</v>
       </c>
@@ -11054,18 +11062,18 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="36"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="36"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>457</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="39"/>
       <c r="C37">
         <v>3004501</v>
       </c>
@@ -11077,7 +11085,7 @@
       <c r="A38" t="s">
         <v>467</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="39"/>
       <c r="C38">
         <v>3028437</v>
       </c>
@@ -11089,7 +11097,7 @@
       <c r="A39" t="s">
         <v>468</v>
       </c>
-      <c r="B39" s="32"/>
+      <c r="B39" s="39"/>
       <c r="C39">
         <v>3007070</v>
       </c>
@@ -11101,7 +11109,7 @@
       <c r="A40" t="s">
         <v>458</v>
       </c>
-      <c r="B40" s="32"/>
+      <c r="B40" s="39"/>
       <c r="C40">
         <v>3027114</v>
       </c>
@@ -11113,7 +11121,7 @@
       <c r="A41" t="s">
         <v>459</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="39"/>
       <c r="C41">
         <v>3027108</v>
       </c>
@@ -11125,7 +11133,7 @@
       <c r="A42" t="s">
         <v>460</v>
       </c>
-      <c r="B42" s="32"/>
+      <c r="B42" s="39"/>
       <c r="C42">
         <v>3004249</v>
       </c>
@@ -11137,7 +11145,7 @@
       <c r="A43" t="s">
         <v>461</v>
       </c>
-      <c r="B43" s="32"/>
+      <c r="B43" s="39"/>
       <c r="C43">
         <v>3012888</v>
       </c>
@@ -11149,7 +11157,7 @@
       <c r="A44" t="s">
         <v>462</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="39"/>
       <c r="C44">
         <v>3024128</v>
       </c>
@@ -11161,7 +11169,7 @@
       <c r="A45" t="s">
         <v>463</v>
       </c>
-      <c r="B45" s="32"/>
+      <c r="B45" s="39"/>
       <c r="C45">
         <v>3000034</v>
       </c>
@@ -11173,7 +11181,7 @@
       <c r="A46" t="s">
         <v>464</v>
       </c>
-      <c r="B46" s="32"/>
+      <c r="B46" s="39"/>
       <c r="C46">
         <v>3022192</v>
       </c>
@@ -11185,7 +11193,7 @@
       <c r="A47" t="s">
         <v>466</v>
       </c>
-      <c r="B47" s="32"/>
+      <c r="B47" s="39"/>
       <c r="C47">
         <v>3027018</v>
       </c>
@@ -11197,7 +11205,7 @@
       <c r="A48" t="s">
         <v>367</v>
       </c>
-      <c r="B48" s="32"/>
+      <c r="B48" s="39"/>
       <c r="C48">
         <v>3027484</v>
       </c>
@@ -11209,7 +11217,7 @@
       <c r="A49" t="s">
         <v>369</v>
       </c>
-      <c r="B49" s="32"/>
+      <c r="B49" s="39"/>
       <c r="C49">
         <v>3007461</v>
       </c>
@@ -11221,7 +11229,7 @@
       <c r="A50" t="s">
         <v>906</v>
       </c>
-      <c r="B50" s="32"/>
+      <c r="B50" s="39"/>
       <c r="C50">
         <v>3016723</v>
       </c>
@@ -11233,7 +11241,7 @@
       <c r="A51" t="s">
         <v>470</v>
       </c>
-      <c r="B51" s="32"/>
+      <c r="B51" s="39"/>
       <c r="C51">
         <v>3010813</v>
       </c>
@@ -11245,7 +11253,7 @@
       <c r="A52" t="s">
         <v>445</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="39" t="s">
         <v>934</v>
       </c>
       <c r="C52">
@@ -11259,7 +11267,7 @@
       <c r="A53" t="s">
         <v>886</v>
       </c>
-      <c r="B53" s="32"/>
+      <c r="B53" s="39"/>
       <c r="C53">
         <v>3052931702</v>
       </c>
@@ -11271,7 +11279,7 @@
       <c r="A54" t="s">
         <v>448</v>
       </c>
-      <c r="B54" s="32"/>
+      <c r="B54" s="39"/>
       <c r="C54">
         <v>3038553702</v>
       </c>
@@ -11283,7 +11291,7 @@
       <c r="A55" t="s">
         <v>449</v>
       </c>
-      <c r="B55" s="32"/>
+      <c r="B55" s="39"/>
       <c r="C55">
         <v>3006923702</v>
       </c>
@@ -11295,7 +11303,7 @@
       <c r="A56" t="s">
         <v>450</v>
       </c>
-      <c r="B56" s="32"/>
+      <c r="B56" s="39"/>
       <c r="C56">
         <v>2212598702</v>
       </c>
@@ -11307,7 +11315,7 @@
       <c r="A57" t="s">
         <v>451</v>
       </c>
-      <c r="B57" s="32"/>
+      <c r="B57" s="39"/>
       <c r="C57">
         <v>2212597702</v>
       </c>
@@ -11319,7 +11327,7 @@
       <c r="A58" t="s">
         <v>455</v>
       </c>
-      <c r="B58" s="32"/>
+      <c r="B58" s="39"/>
       <c r="C58">
         <v>3034485702</v>
       </c>
@@ -11328,10 +11336,10 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="B59" s="32"/>
+      <c r="B59" s="39"/>
       <c r="C59">
         <v>3049187702</v>
       </c>
@@ -11340,18 +11348,18 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="36"/>
-      <c r="B60" s="32"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="39"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="36"/>
-      <c r="B61" s="32"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="39"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>457</v>
       </c>
-      <c r="B62" s="32"/>
+      <c r="B62" s="39"/>
       <c r="C62">
         <v>3004501702</v>
       </c>
@@ -11363,7 +11371,7 @@
       <c r="A63" t="s">
         <v>467</v>
       </c>
-      <c r="B63" s="32"/>
+      <c r="B63" s="39"/>
       <c r="C63">
         <v>3028288702</v>
       </c>
@@ -11375,7 +11383,7 @@
       <c r="A64" t="s">
         <v>468</v>
       </c>
-      <c r="B64" s="32"/>
+      <c r="B64" s="39"/>
       <c r="C64">
         <v>3007070702</v>
       </c>
@@ -11387,7 +11395,7 @@
       <c r="A65" t="s">
         <v>458</v>
       </c>
-      <c r="B65" s="32"/>
+      <c r="B65" s="39"/>
       <c r="C65">
         <v>3037598702</v>
       </c>
@@ -11399,7 +11407,7 @@
       <c r="A66" t="s">
         <v>459</v>
       </c>
-      <c r="B66" s="32"/>
+      <c r="B66" s="39"/>
       <c r="C66">
         <v>3022988702</v>
       </c>
@@ -11411,7 +11419,7 @@
       <c r="A67" t="s">
         <v>460</v>
       </c>
-      <c r="B67" s="32"/>
+      <c r="B67" s="39"/>
       <c r="C67">
         <v>3004249702</v>
       </c>
@@ -11423,7 +11431,7 @@
       <c r="A68" t="s">
         <v>953</v>
       </c>
-      <c r="B68" s="32"/>
+      <c r="B68" s="39"/>
       <c r="C68">
         <v>3012888702</v>
       </c>
@@ -11435,20 +11443,20 @@
       <c r="A69" t="s">
         <v>462</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="37">
+      <c r="B69" s="39"/>
+      <c r="C69" s="27">
         <v>3043347702</v>
       </c>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="27" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="B70" s="32"/>
-      <c r="C70" s="37">
+      <c r="B70" s="39"/>
+      <c r="C70" s="27">
         <v>3011258702</v>
       </c>
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="27" t="s">
         <v>932</v>
       </c>
     </row>
@@ -11456,7 +11464,7 @@
       <c r="A71" t="s">
         <v>463</v>
       </c>
-      <c r="B71" s="32"/>
+      <c r="B71" s="39"/>
       <c r="C71">
         <v>3025987702</v>
       </c>
@@ -11468,7 +11476,7 @@
       <c r="A72" t="s">
         <v>464</v>
       </c>
-      <c r="B72" s="32"/>
+      <c r="B72" s="39"/>
       <c r="C72">
         <v>3014600702</v>
       </c>
@@ -11480,7 +11488,7 @@
       <c r="A73" t="s">
         <v>466</v>
       </c>
-      <c r="B73" s="32"/>
+      <c r="B73" s="39"/>
       <c r="C73">
         <v>4239408702</v>
       </c>
@@ -11492,7 +11500,7 @@
       <c r="A74" t="s">
         <v>367</v>
       </c>
-      <c r="B74" s="32"/>
+      <c r="B74" s="39"/>
       <c r="C74">
         <v>3000963702</v>
       </c>
@@ -11504,7 +11512,7 @@
       <c r="A75" t="s">
         <v>369</v>
       </c>
-      <c r="B75" s="32"/>
+      <c r="B75" s="39"/>
       <c r="C75">
         <v>3007461702</v>
       </c>
@@ -11516,11 +11524,11 @@
       <c r="A76" t="s">
         <v>906</v>
       </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="37">
+      <c r="B76" s="39"/>
+      <c r="C76" s="27">
         <v>4013964702</v>
       </c>
-      <c r="D76" s="37" t="s">
+      <c r="D76" s="27" t="s">
         <v>960</v>
       </c>
     </row>
@@ -11528,7 +11536,7 @@
       <c r="A77" t="s">
         <v>470</v>
       </c>
-      <c r="B77" s="32"/>
+      <c r="B77" s="39"/>
       <c r="C77">
         <v>3010813702</v>
       </c>
@@ -11540,7 +11548,7 @@
       <c r="A78" t="s">
         <v>445</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="39" t="s">
         <v>948</v>
       </c>
       <c r="C78">
@@ -11554,7 +11562,7 @@
       <c r="A79" t="s">
         <v>886</v>
       </c>
-      <c r="B79" s="32"/>
+      <c r="B79" s="39"/>
       <c r="C79">
         <v>3019800702</v>
       </c>
@@ -11566,15 +11574,15 @@
       <c r="A80" t="s">
         <v>448</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>449</v>
       </c>
-      <c r="B81" s="32"/>
+      <c r="B81" s="39"/>
       <c r="C81">
         <v>3006923702</v>
       </c>
@@ -11586,7 +11594,7 @@
       <c r="A82" t="s">
         <v>450</v>
       </c>
-      <c r="B82" s="32"/>
+      <c r="B82" s="39"/>
       <c r="C82">
         <v>3013721702</v>
       </c>
@@ -11598,7 +11606,7 @@
       <c r="A83" t="s">
         <v>451</v>
       </c>
-      <c r="B83" s="32"/>
+      <c r="B83" s="39"/>
       <c r="C83">
         <v>3035995702</v>
       </c>
@@ -11610,7 +11618,7 @@
       <c r="A84" t="s">
         <v>455</v>
       </c>
-      <c r="B84" s="32"/>
+      <c r="B84" s="39"/>
       <c r="C84">
         <v>3034485702</v>
       </c>
@@ -11619,10 +11627,10 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="B85" s="32"/>
+      <c r="B85" s="39"/>
       <c r="C85">
         <v>46236952702</v>
       </c>
@@ -11631,18 +11639,18 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="36"/>
-      <c r="B86" s="32"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="39"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="36"/>
-      <c r="B87" s="32"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="39"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>457</v>
       </c>
-      <c r="B88" s="32"/>
+      <c r="B88" s="39"/>
       <c r="C88">
         <v>3004501702</v>
       </c>
@@ -11654,7 +11662,7 @@
       <c r="A89" t="s">
         <v>467</v>
       </c>
-      <c r="B89" s="32"/>
+      <c r="B89" s="39"/>
       <c r="C89">
         <v>3028288702</v>
       </c>
@@ -11666,7 +11674,7 @@
       <c r="A90" t="s">
         <v>468</v>
       </c>
-      <c r="B90" s="32"/>
+      <c r="B90" s="39"/>
       <c r="C90">
         <v>3007070702</v>
       </c>
@@ -11678,7 +11686,7 @@
       <c r="A91" t="s">
         <v>458</v>
       </c>
-      <c r="B91" s="32"/>
+      <c r="B91" s="39"/>
       <c r="C91">
         <v>3027114702</v>
       </c>
@@ -11690,7 +11698,7 @@
       <c r="A92" t="s">
         <v>459</v>
       </c>
-      <c r="B92" s="32"/>
+      <c r="B92" s="39"/>
       <c r="C92">
         <v>3005770702</v>
       </c>
@@ -11702,7 +11710,7 @@
       <c r="A93" t="s">
         <v>460</v>
       </c>
-      <c r="B93" s="32"/>
+      <c r="B93" s="39"/>
       <c r="C93">
         <v>3004249702</v>
       </c>
@@ -11714,7 +11722,7 @@
       <c r="A94" t="s">
         <v>953</v>
       </c>
-      <c r="B94" s="32"/>
+      <c r="B94" s="39"/>
       <c r="C94">
         <v>3012888702</v>
       </c>
@@ -11726,7 +11734,7 @@
       <c r="A95" t="s">
         <v>462</v>
       </c>
-      <c r="B95" s="32"/>
+      <c r="B95" s="39"/>
       <c r="C95">
         <v>3024128702</v>
       </c>
@@ -11738,7 +11746,7 @@
       <c r="A96" t="s">
         <v>463</v>
       </c>
-      <c r="B96" s="32"/>
+      <c r="B96" s="39"/>
       <c r="C96">
         <v>2212188702</v>
       </c>
@@ -11750,7 +11758,7 @@
       <c r="A97" t="s">
         <v>464</v>
       </c>
-      <c r="B97" s="32"/>
+      <c r="B97" s="39"/>
       <c r="C97">
         <v>3022192702</v>
       </c>
@@ -11762,7 +11770,7 @@
       <c r="A98" t="s">
         <v>466</v>
       </c>
-      <c r="B98" s="32"/>
+      <c r="B98" s="39"/>
       <c r="C98">
         <v>3027018702</v>
       </c>
@@ -11774,7 +11782,7 @@
       <c r="A99" t="s">
         <v>367</v>
       </c>
-      <c r="B99" s="32"/>
+      <c r="B99" s="39"/>
       <c r="C99">
         <v>3000963702</v>
       </c>
@@ -11786,7 +11794,7 @@
       <c r="A100" t="s">
         <v>369</v>
       </c>
-      <c r="B100" s="32"/>
+      <c r="B100" s="39"/>
       <c r="C100">
         <v>3024929702</v>
       </c>
@@ -11798,7 +11806,7 @@
       <c r="A101" t="s">
         <v>906</v>
       </c>
-      <c r="B101" s="32"/>
+      <c r="B101" s="39"/>
       <c r="C101">
         <v>3016723702</v>
       </c>
@@ -11810,7 +11818,7 @@
       <c r="A102" t="s">
         <v>470</v>
       </c>
-      <c r="B102" s="32"/>
+      <c r="B102" s="39"/>
       <c r="C102">
         <v>3000905702</v>
       </c>
@@ -11822,7 +11830,7 @@
       <c r="A103" t="s">
         <v>445</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="39" t="s">
         <v>950</v>
       </c>
       <c r="C103">
@@ -11836,7 +11844,7 @@
       <c r="A104" t="s">
         <v>886</v>
       </c>
-      <c r="B104" s="32"/>
+      <c r="B104" s="39"/>
       <c r="C104">
         <v>3019800702</v>
       </c>
@@ -11848,15 +11856,15 @@
       <c r="A105" t="s">
         <v>448</v>
       </c>
-      <c r="B105" s="32"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>449</v>
       </c>
-      <c r="B106" s="32"/>
+      <c r="B106" s="39"/>
       <c r="C106">
         <v>3006923702</v>
       </c>
@@ -11868,7 +11876,7 @@
       <c r="A107" t="s">
         <v>450</v>
       </c>
-      <c r="B107" s="32"/>
+      <c r="B107" s="39"/>
       <c r="C107">
         <v>3013721702</v>
       </c>
@@ -11880,7 +11888,7 @@
       <c r="A108" t="s">
         <v>451</v>
       </c>
-      <c r="B108" s="32"/>
+      <c r="B108" s="39"/>
       <c r="C108">
         <v>3035995702</v>
       </c>
@@ -11892,7 +11900,7 @@
       <c r="A109" t="s">
         <v>455</v>
       </c>
-      <c r="B109" s="32"/>
+      <c r="B109" s="39"/>
       <c r="C109">
         <v>3001802702</v>
       </c>
@@ -11901,10 +11909,10 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="39" t="s">
+      <c r="A110" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="B110" s="32"/>
+      <c r="B110" s="39"/>
       <c r="C110">
         <v>46236952702</v>
       </c>
@@ -11913,18 +11921,18 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="36"/>
-      <c r="B111" s="32"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="39"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="36"/>
-      <c r="B112" s="32"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="39"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>457</v>
       </c>
-      <c r="B113" s="32"/>
+      <c r="B113" s="39"/>
       <c r="C113">
         <v>3004501702</v>
       </c>
@@ -11936,7 +11944,7 @@
       <c r="A114" t="s">
         <v>467</v>
       </c>
-      <c r="B114" s="32"/>
+      <c r="B114" s="39"/>
       <c r="C114">
         <v>3028288702</v>
       </c>
@@ -11948,7 +11956,7 @@
       <c r="A115" t="s">
         <v>468</v>
       </c>
-      <c r="B115" s="32"/>
+      <c r="B115" s="39"/>
       <c r="C115">
         <v>3007070702</v>
       </c>
@@ -11960,7 +11968,7 @@
       <c r="A116" t="s">
         <v>458</v>
       </c>
-      <c r="B116" s="32"/>
+      <c r="B116" s="39"/>
       <c r="C116">
         <v>3027114702</v>
       </c>
@@ -11972,7 +11980,7 @@
       <c r="A117" t="s">
         <v>459</v>
       </c>
-      <c r="B117" s="32"/>
+      <c r="B117" s="39"/>
       <c r="C117">
         <v>3005770702</v>
       </c>
@@ -11984,7 +11992,7 @@
       <c r="A118" t="s">
         <v>460</v>
       </c>
-      <c r="B118" s="32"/>
+      <c r="B118" s="39"/>
       <c r="C118">
         <v>3004249702</v>
       </c>
@@ -11996,7 +12004,7 @@
       <c r="A119" t="s">
         <v>953</v>
       </c>
-      <c r="B119" s="32"/>
+      <c r="B119" s="39"/>
       <c r="C119">
         <v>3012888702</v>
       </c>
@@ -12008,7 +12016,7 @@
       <c r="A120" t="s">
         <v>462</v>
       </c>
-      <c r="B120" s="32"/>
+      <c r="B120" s="39"/>
       <c r="C120">
         <v>3024128702</v>
       </c>
@@ -12020,7 +12028,7 @@
       <c r="A121" t="s">
         <v>463</v>
       </c>
-      <c r="B121" s="32"/>
+      <c r="B121" s="39"/>
       <c r="C121">
         <v>2212188702</v>
       </c>
@@ -12032,7 +12040,7 @@
       <c r="A122" t="s">
         <v>464</v>
       </c>
-      <c r="B122" s="32"/>
+      <c r="B122" s="39"/>
       <c r="C122">
         <v>3022192702</v>
       </c>
@@ -12044,7 +12052,7 @@
       <c r="A123" t="s">
         <v>466</v>
       </c>
-      <c r="B123" s="32"/>
+      <c r="B123" s="39"/>
       <c r="C123">
         <v>3027018702</v>
       </c>
@@ -12056,7 +12064,7 @@
       <c r="A124" t="s">
         <v>367</v>
       </c>
-      <c r="B124" s="32"/>
+      <c r="B124" s="39"/>
       <c r="C124">
         <v>3000963702</v>
       </c>
@@ -12068,7 +12076,7 @@
       <c r="A125" t="s">
         <v>369</v>
       </c>
-      <c r="B125" s="32"/>
+      <c r="B125" s="39"/>
       <c r="C125">
         <v>3024929702</v>
       </c>
@@ -12080,7 +12088,7 @@
       <c r="A126" t="s">
         <v>906</v>
       </c>
-      <c r="B126" s="32"/>
+      <c r="B126" s="39"/>
       <c r="C126">
         <v>3016723702</v>
       </c>
@@ -12092,7 +12100,7 @@
       <c r="A127" t="s">
         <v>470</v>
       </c>
-      <c r="B127" s="32"/>
+      <c r="B127" s="39"/>
       <c r="C127">
         <v>3000905702</v>
       </c>
@@ -12104,7 +12112,7 @@
       <c r="A128" t="s">
         <v>445</v>
       </c>
-      <c r="B128" s="32" t="s">
+      <c r="B128" s="39" t="s">
         <v>951</v>
       </c>
       <c r="C128">
@@ -12118,7 +12126,7 @@
       <c r="A129" t="s">
         <v>886</v>
       </c>
-      <c r="B129" s="32"/>
+      <c r="B129" s="39"/>
       <c r="C129">
         <v>3019800702</v>
       </c>
@@ -12130,7 +12138,7 @@
       <c r="A130" t="s">
         <v>448</v>
       </c>
-      <c r="B130" s="32"/>
+      <c r="B130" s="39"/>
       <c r="C130">
         <v>3038553702</v>
       </c>
@@ -12142,7 +12150,7 @@
       <c r="A131" t="s">
         <v>449</v>
       </c>
-      <c r="B131" s="32"/>
+      <c r="B131" s="39"/>
       <c r="C131">
         <v>3006923702</v>
       </c>
@@ -12154,7 +12162,7 @@
       <c r="A132" t="s">
         <v>450</v>
       </c>
-      <c r="B132" s="32"/>
+      <c r="B132" s="39"/>
       <c r="C132">
         <v>3006923702</v>
       </c>
@@ -12166,7 +12174,7 @@
       <c r="A133" t="s">
         <v>451</v>
       </c>
-      <c r="B133" s="32"/>
+      <c r="B133" s="39"/>
       <c r="C133">
         <v>3035995702</v>
       </c>
@@ -12178,7 +12186,7 @@
       <c r="A134" t="s">
         <v>455</v>
       </c>
-      <c r="B134" s="32"/>
+      <c r="B134" s="39"/>
       <c r="C134">
         <v>3034485702</v>
       </c>
@@ -12187,10 +12195,10 @@
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="39" t="s">
+      <c r="A135" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="B135" s="32"/>
+      <c r="B135" s="39"/>
       <c r="C135">
         <v>3053283702</v>
       </c>
@@ -12199,18 +12207,18 @@
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="36"/>
-      <c r="B136" s="32"/>
+      <c r="A136" s="38"/>
+      <c r="B136" s="39"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="36"/>
-      <c r="B137" s="32"/>
+      <c r="A137" s="38"/>
+      <c r="B137" s="39"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>457</v>
       </c>
-      <c r="B138" s="32"/>
+      <c r="B138" s="39"/>
       <c r="C138">
         <v>3004501702</v>
       </c>
@@ -12222,7 +12230,7 @@
       <c r="A139" t="s">
         <v>467</v>
       </c>
-      <c r="B139" s="32"/>
+      <c r="B139" s="39"/>
       <c r="C139">
         <v>3028288702</v>
       </c>
@@ -12234,7 +12242,7 @@
       <c r="A140" t="s">
         <v>468</v>
       </c>
-      <c r="B140" s="32"/>
+      <c r="B140" s="39"/>
       <c r="C140">
         <v>3007070702</v>
       </c>
@@ -12246,7 +12254,7 @@
       <c r="A141" t="s">
         <v>458</v>
       </c>
-      <c r="B141" s="32"/>
+      <c r="B141" s="39"/>
       <c r="C141">
         <v>3027114702</v>
       </c>
@@ -12258,7 +12266,7 @@
       <c r="A142" t="s">
         <v>459</v>
       </c>
-      <c r="B142" s="32"/>
+      <c r="B142" s="39"/>
       <c r="C142">
         <v>3005770702</v>
       </c>
@@ -12270,7 +12278,7 @@
       <c r="A143" t="s">
         <v>460</v>
       </c>
-      <c r="B143" s="32"/>
+      <c r="B143" s="39"/>
       <c r="C143">
         <v>3004249702</v>
       </c>
@@ -12282,7 +12290,7 @@
       <c r="A144" t="s">
         <v>953</v>
       </c>
-      <c r="B144" s="32"/>
+      <c r="B144" s="39"/>
       <c r="C144">
         <v>3012888702</v>
       </c>
@@ -12294,7 +12302,7 @@
       <c r="A145" t="s">
         <v>462</v>
       </c>
-      <c r="B145" s="32"/>
+      <c r="B145" s="39"/>
       <c r="C145">
         <v>3024128702</v>
       </c>
@@ -12306,7 +12314,7 @@
       <c r="A146" t="s">
         <v>463</v>
       </c>
-      <c r="B146" s="32"/>
+      <c r="B146" s="39"/>
       <c r="C146">
         <v>3000034702</v>
       </c>
@@ -12318,7 +12326,7 @@
       <c r="A147" t="s">
         <v>464</v>
       </c>
-      <c r="B147" s="32"/>
+      <c r="B147" s="39"/>
       <c r="C147">
         <v>3022192702</v>
       </c>
@@ -12330,7 +12338,7 @@
       <c r="A148" t="s">
         <v>466</v>
       </c>
-      <c r="B148" s="32"/>
+      <c r="B148" s="39"/>
       <c r="C148">
         <v>3027018702</v>
       </c>
@@ -12342,7 +12350,7 @@
       <c r="A149" t="s">
         <v>367</v>
       </c>
-      <c r="B149" s="32"/>
+      <c r="B149" s="39"/>
       <c r="C149">
         <v>3000963702</v>
       </c>
@@ -12354,7 +12362,7 @@
       <c r="A150" t="s">
         <v>369</v>
       </c>
-      <c r="B150" s="32"/>
+      <c r="B150" s="39"/>
       <c r="C150">
         <v>3024929702</v>
       </c>
@@ -12366,7 +12374,7 @@
       <c r="A151" t="s">
         <v>906</v>
       </c>
-      <c r="B151" s="32"/>
+      <c r="B151" s="39"/>
       <c r="C151">
         <v>3016723702</v>
       </c>
@@ -12378,7 +12386,7 @@
       <c r="A152" t="s">
         <v>470</v>
       </c>
-      <c r="B152" s="32"/>
+      <c r="B152" s="39"/>
       <c r="C152">
         <v>3000905702</v>
       </c>
@@ -12387,264 +12395,262 @@
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="37" t="s">
+      <c r="A153" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="B153" s="38" t="s">
+      <c r="B153" s="40" t="s">
         <v>955</v>
       </c>
-      <c r="C153" s="37"/>
-      <c r="D153" s="37"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="37" t="s">
+      <c r="A154" s="27" t="s">
         <v>886</v>
       </c>
-      <c r="B154" s="38"/>
-      <c r="C154" s="37"/>
-      <c r="D154" s="37"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="27"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="37" t="s">
+      <c r="A155" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="B155" s="38"/>
-      <c r="C155" s="37">
+      <c r="B155" s="40"/>
+      <c r="C155" s="27">
         <v>3038553702</v>
       </c>
-      <c r="D155" s="37" t="s">
+      <c r="D155" s="27" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="37" t="s">
+      <c r="A156" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="B156" s="38"/>
-      <c r="C156" s="37">
+      <c r="B156" s="40"/>
+      <c r="C156" s="27">
         <v>3006923702</v>
       </c>
-      <c r="D156" s="37" t="s">
+      <c r="D156" s="27" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="37" t="s">
+      <c r="A157" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="B157" s="38"/>
-      <c r="C157" s="37">
+      <c r="B157" s="40"/>
+      <c r="C157" s="27">
         <v>3013721702</v>
       </c>
-      <c r="D157" s="37" t="s">
+      <c r="D157" s="27" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="37" t="s">
+      <c r="A158" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="B158" s="38"/>
-      <c r="C158" s="37"/>
-      <c r="D158" s="37"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="37" t="s">
+      <c r="A159" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="B159" s="38"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
+      <c r="B159" s="40"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="39" t="s">
+      <c r="A160" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="B160" s="38"/>
-      <c r="C160" s="37"/>
-      <c r="D160" s="37"/>
+      <c r="B160" s="40"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="39"/>
-      <c r="B161" s="38"/>
-      <c r="C161" s="37"/>
-      <c r="D161" s="37"/>
+      <c r="A161" s="37"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="39"/>
-      <c r="B162" s="38"/>
-      <c r="C162" s="37"/>
-      <c r="D162" s="37"/>
+      <c r="A162" s="37"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="37" t="s">
+      <c r="A163" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="B163" s="38"/>
-      <c r="C163" s="37"/>
-      <c r="D163" s="37"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="27"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="37" t="s">
+      <c r="A164" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="B164" s="38"/>
-      <c r="C164" s="37">
+      <c r="B164" s="40"/>
+      <c r="C164" s="27">
         <v>3035899702</v>
       </c>
-      <c r="D164" s="37" t="s">
+      <c r="D164" s="27" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="37" t="s">
+      <c r="A165" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="B165" s="38"/>
-      <c r="C165" s="37">
+      <c r="B165" s="40"/>
+      <c r="C165" s="27">
         <v>3007070702</v>
       </c>
-      <c r="D165" s="37" t="s">
+      <c r="D165" s="27" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="37" t="s">
+      <c r="A166" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="B166" s="38"/>
-      <c r="C166" s="37">
+      <c r="B166" s="40"/>
+      <c r="C166" s="27">
         <v>3027114702</v>
       </c>
-      <c r="D166" s="37" t="s">
+      <c r="D166" s="27" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="37" t="s">
+      <c r="A167" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="B167" s="38"/>
-      <c r="C167" s="37"/>
-      <c r="D167" s="37"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="27"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="37" t="s">
+      <c r="A168" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="B168" s="38"/>
-      <c r="C168" s="37">
+      <c r="B168" s="40"/>
+      <c r="C168" s="27">
         <v>3004249702</v>
       </c>
-      <c r="D168" s="37" t="s">
+      <c r="D168" s="27" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="37" t="s">
+      <c r="A169" s="27" t="s">
         <v>953</v>
       </c>
-      <c r="B169" s="38"/>
-      <c r="C169" s="37">
+      <c r="B169" s="40"/>
+      <c r="C169" s="27">
         <v>3012888702</v>
       </c>
-      <c r="D169" s="37" t="s">
+      <c r="D169" s="27" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="37" t="s">
+      <c r="A170" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="B170" s="38"/>
-      <c r="C170" s="37">
+      <c r="B170" s="40"/>
+      <c r="C170" s="27">
         <v>3024128702</v>
       </c>
-      <c r="D170" s="37" t="s">
+      <c r="D170" s="27" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="37" t="s">
+      <c r="A171" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="B171" s="38"/>
-      <c r="C171" s="37"/>
-      <c r="D171" s="37"/>
+      <c r="B171" s="40"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="37" t="s">
+      <c r="A172" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="B172" s="38"/>
-      <c r="C172" s="37"/>
-      <c r="D172" s="37"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="27"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="37" t="s">
+      <c r="A173" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="B173" s="38"/>
-      <c r="C173" s="37">
+      <c r="B173" s="40"/>
+      <c r="C173" s="27">
         <v>3027018702</v>
       </c>
-      <c r="D173" s="37" t="s">
+      <c r="D173" s="27" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="37" t="s">
+      <c r="A174" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="B174" s="38"/>
-      <c r="C174" s="37">
+      <c r="B174" s="40"/>
+      <c r="C174" s="27">
         <v>3000963702</v>
       </c>
-      <c r="D174" s="37" t="s">
+      <c r="D174" s="27" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="37" t="s">
+      <c r="A175" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="B175" s="38"/>
-      <c r="C175" s="37">
+      <c r="B175" s="40"/>
+      <c r="C175" s="27">
         <v>3001123702</v>
       </c>
-      <c r="D175" s="37" t="s">
+      <c r="D175" s="27" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="37" t="s">
+      <c r="A176" s="27" t="s">
         <v>906</v>
       </c>
-      <c r="B176" s="38"/>
-      <c r="C176" s="37"/>
-      <c r="D176" s="37"/>
+      <c r="B176" s="40"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="37" t="s">
+      <c r="A177" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="B177" s="38"/>
-      <c r="C177" s="37"/>
-      <c r="D177" s="37"/>
+      <c r="B177" s="40"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="E186" s="40"/>
-      <c r="F186" s="41"/>
-      <c r="G186" s="35"/>
+      <c r="E186" s="28"/>
+      <c r="F186" s="29"/>
+      <c r="G186" s="26"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="C187" s="35"/>
+      <c r="C187" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F177" xr:uid="{049337A3-95B1-1348-8018-3B6D61DB9C91}"/>
   <mergeCells count="14">
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B128:B152"/>
     <mergeCell ref="A160:A162"/>
     <mergeCell ref="B153:B177"/>
     <mergeCell ref="A59:A61"/>
@@ -12657,6 +12663,8 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="B27:B51"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="B128:B152"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12717,7 +12725,7 @@
       <c r="E2" t="s">
         <v>395</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="41" t="s">
         <v>397</v>
       </c>
     </row>
@@ -12737,7 +12745,7 @@
       <c r="E3" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -12755,7 +12763,7 @@
       <c r="E4" t="s">
         <v>394</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" ht="69.5" customHeight="1">
       <c r="A5" t="s">
@@ -12773,7 +12781,7 @@
       <c r="E5" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -12791,7 +12799,7 @@
       <c r="E6" t="s">
         <v>393</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -12809,7 +12817,7 @@
       <c r="E7" t="s">
         <v>391</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -12827,7 +12835,7 @@
       <c r="E8" t="s">
         <v>391</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -12845,7 +12853,7 @@
       <c r="E9" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12991,10 +12999,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="32" t="s">
         <v>97</v>
       </c>
     </row>
@@ -13012,8 +13020,8 @@
         <v>94</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="26"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6"/>
@@ -13031,8 +13039,8 @@
       <c r="G6" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="26"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9" ht="54">
       <c r="A7" s="6"/>
@@ -13098,10 +13106,10 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="33" t="s">
         <v>77</v>
       </c>
     </row>
@@ -13121,8 +13129,8 @@
       <c r="G11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="27"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6"/>
@@ -13138,8 +13146,8 @@
         <v>70</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="27"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13164,8 +13172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B99D85-8777-DB4C-9DBE-51E54B81AEDF}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="214" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView zoomScale="214" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -13195,19 +13203,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="34"/>
       <c r="E2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="34"/>
       <c r="E3" s="14" t="s">
         <v>341</v>
       </c>
@@ -13224,10 +13232,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="34"/>
       <c r="E5" s="16" t="s">
         <v>343</v>
       </c>
@@ -13243,11 +13251,14 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="1:5" ht="18">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="34"/>
+      <c r="E7" s="1" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="1">
@@ -13441,10 +13452,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="34"/>
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A28" s="1">
@@ -13453,17 +13464,17 @@
       <c r="B28" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:13" ht="18">
       <c r="A29" s="1">
@@ -13472,17 +13483,17 @@
       <c r="B29" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:13" ht="54">
       <c r="A30" s="1">
@@ -13491,17 +13502,17 @@
       <c r="B30" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:13" ht="108">
       <c r="A31" s="1">
@@ -13510,17 +13521,17 @@
       <c r="B31" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
     </row>
     <row r="32" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A32" s="1">
@@ -13529,17 +13540,17 @@
       <c r="B32" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A33" s="1">
@@ -13548,17 +13559,17 @@
       <c r="B33" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A34" s="1">
@@ -13567,19 +13578,19 @@
       <c r="B34" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="24" t="s">
         <v>961</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A35" s="1">
@@ -13588,17 +13599,17 @@
       <c r="B35" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A36" s="1">
@@ -13607,17 +13618,17 @@
       <c r="B36" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A37" s="1">
@@ -13626,17 +13637,17 @@
       <c r="B37" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A38" s="1">
@@ -13645,17 +13656,17 @@
       <c r="B38" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A39" s="1">
@@ -13664,17 +13675,17 @@
       <c r="B39" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A40" s="1">
@@ -13683,17 +13694,17 @@
       <c r="B40" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A41" s="1">
@@ -13702,17 +13713,17 @@
       <c r="B41" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1"/>
     <row r="43" spans="1:13" s="1" customFormat="1"/>
@@ -13742,8 +13753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7EEBDA-2A41-064D-A08D-25F362EADDF3}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="177" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -13773,19 +13784,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="34"/>
       <c r="E2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="34"/>
       <c r="E3" s="14" t="s">
         <v>341</v>
       </c>
@@ -13802,10 +13813,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="34"/>
       <c r="E5" s="16" t="s">
         <v>343</v>
       </c>
@@ -13822,10 +13833,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:5" ht="36">
       <c r="A8" s="1">
@@ -13855,7 +13866,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="54">
-      <c r="A11" s="29">
+      <c r="A11" s="35">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -13863,25 +13874,25 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
-      <c r="A12" s="29"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="54">
-      <c r="A13" s="29"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="1" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="29"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="36">
-      <c r="A15" s="29"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>527</v>
       </c>
@@ -13935,10 +13946,10 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A23" s="1">
@@ -13947,17 +13958,17 @@
       <c r="B23" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:13" ht="54">
       <c r="A24" s="1" t="s">
@@ -13966,17 +13977,17 @@
       <c r="B24" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:13" ht="36">
       <c r="A25" s="1" t="s">
@@ -13985,17 +13996,17 @@
       <c r="B25" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:13" ht="18">
       <c r="A26" s="1" t="s">
@@ -14004,17 +14015,17 @@
       <c r="B26" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" ht="90">
       <c r="A27" s="1" t="s">
@@ -14023,17 +14034,17 @@
       <c r="B27" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1" ht="72">
       <c r="A28" s="1">
@@ -14042,17 +14053,17 @@
       <c r="B28" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A29" s="1">
@@ -14061,17 +14072,17 @@
       <c r="B29" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A30" s="1">
@@ -14080,17 +14091,17 @@
       <c r="B30" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A31" s="1">
@@ -14099,17 +14110,17 @@
       <c r="B31" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A32" s="1">
@@ -14118,17 +14129,17 @@
       <c r="B32" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A33" s="1">
@@ -14137,17 +14148,17 @@
       <c r="B33" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A34" s="1">
@@ -14157,16 +14168,16 @@
         <v>552</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A35" s="1">
@@ -14175,17 +14186,17 @@
       <c r="B35" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" ht="90">
       <c r="A36" s="1">
@@ -14195,16 +14206,16 @@
         <v>544</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A37" s="1">
@@ -14279,12 +14290,12 @@
     <row r="47" spans="1:13" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A11:A15"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14296,7 +14307,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -14326,19 +14337,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="34"/>
       <c r="E2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="34"/>
       <c r="E3" s="14" t="s">
         <v>341</v>
       </c>
@@ -14355,10 +14366,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="34"/>
       <c r="E5" s="16" t="s">
         <v>343</v>
       </c>
@@ -14375,10 +14386,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:5" ht="36">
       <c r="A8" s="1">
@@ -14512,10 +14523,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="34"/>
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1" ht="72">
       <c r="A25" s="1">
@@ -14524,17 +14535,17 @@
       <c r="B25" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:13" ht="85" customHeight="1">
       <c r="A26" s="1">
@@ -14543,17 +14554,17 @@
       <c r="B26" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:13" ht="40" customHeight="1">
       <c r="A27" s="1">
@@ -14562,17 +14573,17 @@
       <c r="B27" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:13" ht="82" customHeight="1">
       <c r="A28" s="1">
@@ -14581,17 +14592,17 @@
       <c r="B28" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A29" s="1">
@@ -14600,17 +14611,17 @@
       <c r="B29" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A30" s="1">
@@ -14619,17 +14630,17 @@
       <c r="B30" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A31" s="1">
@@ -14638,17 +14649,17 @@
       <c r="B31" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A32" s="1">
@@ -14657,17 +14668,17 @@
       <c r="B32" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A33" s="1">
@@ -14676,17 +14687,17 @@
       <c r="B33" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A34" s="1">
@@ -14695,17 +14706,17 @@
       <c r="B34" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A35" s="1">
@@ -14714,17 +14725,17 @@
       <c r="B35" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" ht="151" customHeight="1">
       <c r="A36" s="1">
@@ -14733,17 +14744,17 @@
       <c r="B36" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="90">
       <c r="A37" s="1" t="s">
@@ -14752,17 +14763,17 @@
       <c r="B37" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" ht="90">
       <c r="A38" s="1">
@@ -14771,17 +14782,17 @@
       <c r="B38" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1" ht="72">
       <c r="A39" s="1">
@@ -14790,6 +14801,9 @@
       <c r="B39" s="1" t="s">
         <v>597</v>
       </c>
+      <c r="C39" s="17" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1" ht="90">
       <c r="A40" s="1">
@@ -14813,6 +14827,9 @@
       </c>
       <c r="B42" s="1" t="s">
         <v>600</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1"/>
@@ -14840,7 +14857,7 @@
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -14870,19 +14887,19 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="34"/>
       <c r="E2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="34"/>
       <c r="E3" s="14" t="s">
         <v>341</v>
       </c>
@@ -14892,17 +14909,17 @@
         <v>556</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>555</v>
+        <v>967</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="34"/>
       <c r="E5" s="16" t="s">
         <v>343</v>
       </c>
@@ -14919,10 +14936,10 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:22" ht="180">
       <c r="A8" s="1">
@@ -15275,10 +15292,10 @@
       <c r="V21" s="1"/>
     </row>
     <row r="23" spans="1:22" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="34"/>
     </row>
     <row r="24" spans="1:22" s="1" customFormat="1" ht="54">
       <c r="A24" s="1">
@@ -15287,17 +15304,17 @@
       <c r="B24" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:22" ht="126">
       <c r="A25" s="1">
@@ -15306,17 +15323,17 @@
       <c r="B25" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:22" ht="36">
       <c r="A26" s="1">
@@ -15325,17 +15342,17 @@
       <c r="B26" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:22" ht="54">
       <c r="A27" s="1" t="s">
@@ -15344,17 +15361,17 @@
       <c r="B27" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
     </row>
     <row r="28" spans="1:22" s="1" customFormat="1" ht="198">
       <c r="A28" s="1" t="s">
@@ -15363,17 +15380,17 @@
       <c r="B28" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:22" s="1" customFormat="1" ht="72">
       <c r="A29" s="1">
@@ -15382,17 +15399,17 @@
       <c r="B29" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:22" s="1" customFormat="1" ht="36">
       <c r="A30" s="1">
@@ -15401,17 +15418,17 @@
       <c r="B30" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:22" s="1" customFormat="1" ht="54">
       <c r="A31" s="1">
@@ -15420,17 +15437,17 @@
       <c r="B31" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:22" s="1" customFormat="1" ht="90">
       <c r="A32" s="1">
@@ -15439,17 +15456,17 @@
       <c r="B32" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" ht="90">
       <c r="A33" s="1">
@@ -15458,17 +15475,17 @@
       <c r="B33" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" ht="72">
       <c r="A34" s="1">
@@ -15477,17 +15494,17 @@
       <c r="B34" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="90">
       <c r="A35" s="1">
@@ -15496,17 +15513,17 @@
       <c r="B35" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A36" s="1">
@@ -15515,17 +15532,17 @@
       <c r="B36" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A37" s="1">
@@ -15534,17 +15551,17 @@
       <c r="B37" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" ht="81">
       <c r="A38" s="1" t="s">
@@ -15593,6 +15610,9 @@
       <c r="B43" s="1" t="s">
         <v>633</v>
       </c>
+      <c r="C43" s="17" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1" ht="90">
       <c r="A44" s="1">
@@ -15609,6 +15629,9 @@
       <c r="B45" s="1" t="s">
         <v>635</v>
       </c>
+      <c r="C45" s="17" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="46" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A46" s="1">
@@ -15634,15 +15657,18 @@
         <v>638</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="72">
+    <row r="49" spans="1:3" ht="72">
       <c r="A49" s="1">
         <v>23</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="36">
+      <c r="C49" s="17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="36">
       <c r="A50" s="1">
         <v>24</v>
       </c>
@@ -15650,7 +15676,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="36">
+    <row r="51" spans="1:3" ht="36">
       <c r="A51" s="1">
         <v>25</v>
       </c>
@@ -15658,12 +15684,15 @@
         <v>641</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="90">
+    <row r="52" spans="1:3" ht="90">
       <c r="A52" s="1">
         <v>26</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>642</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -15683,8 +15712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B32F20-F7BC-2845-B5CA-DE16FD113EDE}">
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="152" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView zoomScale="152" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -15714,19 +15743,19 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="34"/>
       <c r="E2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="34"/>
       <c r="E3" s="14" t="s">
         <v>341</v>
       </c>
@@ -15743,10 +15772,10 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="34"/>
       <c r="E5" s="16" t="s">
         <v>343</v>
       </c>
@@ -15763,10 +15792,10 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:22" ht="36">
       <c r="A8" s="1">
@@ -15977,10 +16006,10 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="18" customHeight="1">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="35" t="s">
         <v>654</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="35"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -16609,10 +16638,10 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22" ht="17" customHeight="1">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="35" t="s">
         <v>669</v>
       </c>
-      <c r="C41" s="29"/>
+      <c r="C41" s="35"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -16693,10 +16722,10 @@
       <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:22" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="28"/>
+      <c r="C45" s="34"/>
     </row>
     <row r="46" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A46" s="1">
@@ -16705,17 +16734,17 @@
       <c r="B46" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
     </row>
     <row r="47" spans="1:22" ht="90">
       <c r="A47" s="1">
@@ -16724,17 +16753,17 @@
       <c r="B47" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
     </row>
     <row r="48" spans="1:22" ht="72">
       <c r="A48" s="1">
@@ -16743,17 +16772,17 @@
       <c r="B48" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
     </row>
     <row r="49" spans="1:13" ht="54">
       <c r="A49" s="1">
@@ -16762,17 +16791,17 @@
       <c r="B49" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A50" s="1">
@@ -16781,17 +16810,17 @@
       <c r="B50" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A51" s="1">
@@ -16800,17 +16829,17 @@
       <c r="B51" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
     </row>
     <row r="52" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A52" s="1">
@@ -16819,17 +16848,17 @@
       <c r="B52" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
     </row>
     <row r="53" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A53" s="1">
@@ -16838,17 +16867,17 @@
       <c r="B53" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
     </row>
     <row r="54" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A54" s="1">
@@ -16857,17 +16886,17 @@
       <c r="B54" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
     </row>
     <row r="55" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A55" s="1">
@@ -16876,17 +16905,17 @@
       <c r="B55" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
     </row>
     <row r="56" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A56" s="1" t="s">
@@ -16895,17 +16924,17 @@
       <c r="B56" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1" ht="198">
       <c r="A57" s="1" t="s">
@@ -16914,17 +16943,17 @@
       <c r="B57" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
     </row>
     <row r="58" spans="1:13" s="1" customFormat="1" ht="162">
       <c r="A58" s="1">
@@ -16933,17 +16962,19 @@
       <c r="B58" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="C58" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
     </row>
     <row r="59" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A59" s="1">
@@ -16952,17 +16983,17 @@
       <c r="B59" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
     </row>
     <row r="60" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A60" s="1">
@@ -17096,8 +17127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799C4747-8976-2146-872C-05E4D19893F1}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="175" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -17127,19 +17158,19 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="34"/>
       <c r="E2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="34"/>
       <c r="E3" s="14" t="s">
         <v>341</v>
       </c>
@@ -17156,10 +17187,10 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="34"/>
       <c r="E5" s="16" t="s">
         <v>343</v>
       </c>
@@ -17176,10 +17207,10 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:22" ht="72">
       <c r="A8" s="1">
@@ -17494,10 +17525,10 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:22" s="1" customFormat="1" ht="36">
       <c r="A21" s="1">
@@ -17506,17 +17537,17 @@
       <c r="B21" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:22" ht="90">
       <c r="A22" s="1">
@@ -17525,17 +17556,17 @@
       <c r="B22" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:22" ht="36">
       <c r="A23" s="1">
@@ -17544,17 +17575,17 @@
       <c r="B23" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:22" ht="72">
       <c r="A24" s="1">
@@ -17563,17 +17594,19 @@
       <c r="B24" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
+      <c r="C24" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
     </row>
     <row r="25" spans="1:22" s="1" customFormat="1" ht="36">
       <c r="A25" s="1">
@@ -17582,17 +17615,17 @@
       <c r="B25" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A26" s="1">
@@ -17601,17 +17634,17 @@
       <c r="B26" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:22" s="1" customFormat="1" ht="72">
       <c r="A27" s="1">
@@ -17620,17 +17653,17 @@
       <c r="B27" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:22" s="1" customFormat="1" ht="144">
       <c r="A28" s="1">
@@ -17639,17 +17672,19 @@
       <c r="B28" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="C28" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:22" s="1" customFormat="1" ht="54">
       <c r="A29" s="1">
@@ -17658,17 +17693,17 @@
       <c r="B29" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A30" s="1">
@@ -17677,17 +17712,17 @@
       <c r="B30" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A31" s="1">
@@ -17696,17 +17731,19 @@
       <c r="B31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
+      <c r="C31" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:22" s="1" customFormat="1"/>
     <row r="33" spans="6:22" s="1" customFormat="1"/>
@@ -17831,7 +17868,7 @@
   <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView zoomScale="236" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -17861,19 +17898,19 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="34"/>
       <c r="E2" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="34"/>
       <c r="E3" s="14" t="s">
         <v>341</v>
       </c>
@@ -17890,10 +17927,10 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="34"/>
       <c r="E5" s="16" t="s">
         <v>343</v>
       </c>
@@ -17910,10 +17947,10 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:22" ht="36">
       <c r="A8" s="1">
@@ -18421,10 +18458,10 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="34"/>
     </row>
     <row r="29" spans="1:22" s="1" customFormat="1" ht="90">
       <c r="A29" s="1">
@@ -18433,17 +18470,17 @@
       <c r="B29" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:22" ht="54">
       <c r="A30" s="1">
@@ -18452,17 +18489,17 @@
       <c r="B30" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:22" ht="36">
       <c r="A31" s="1">
@@ -18471,17 +18508,17 @@
       <c r="B31" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:22" ht="36">
       <c r="A32" s="1">
@@ -18490,17 +18527,17 @@
       <c r="B32" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A33" s="1">
@@ -18509,17 +18546,17 @@
       <c r="B33" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A34" s="1">
@@ -18528,17 +18565,17 @@
       <c r="B34" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A35" s="1">
@@ -18547,17 +18584,17 @@
       <c r="B35" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A36" s="1">
@@ -18566,17 +18603,17 @@
       <c r="B36" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A37" s="1">
@@ -18585,17 +18622,17 @@
       <c r="B37" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A38" s="1" t="s">
@@ -18604,17 +18641,17 @@
       <c r="B38" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A39" s="1" t="s">
@@ -18623,17 +18660,17 @@
       <c r="B39" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A40" s="1" t="s">
@@ -18642,17 +18679,17 @@
       <c r="B40" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A41" s="1" t="s">
@@ -18661,17 +18698,17 @@
       <c r="B41" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A42" s="1" t="s">
@@ -18680,17 +18717,17 @@
       <c r="B42" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1" ht="54">
       <c r="A43" s="1" t="s">
@@ -18715,6 +18752,9 @@
       <c r="B45" s="1" t="s">
         <v>780</v>
       </c>
+      <c r="C45" s="17" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="46" spans="1:13" s="1" customFormat="1" ht="18">
       <c r="A46" s="1">
@@ -18723,6 +18763,9 @@
       <c r="B46" s="1" t="s">
         <v>781</v>
       </c>
+      <c r="C46" s="17" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="47" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A47" s="1">
@@ -18731,6 +18774,9 @@
       <c r="B47" s="1" t="s">
         <v>782</v>
       </c>
+      <c r="C47" s="17" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="48" spans="1:13" s="1" customFormat="1" ht="36">
       <c r="A48" s="1">
@@ -18738,6 +18784,9 @@
       </c>
       <c r="B48" s="1" t="s">
         <v>783</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="6:22" s="1" customFormat="1"/>
